--- a/biology/Botanique/Egger_(entreprise)/Egger_(entreprise).xlsx
+++ b/biology/Botanique/Egger_(entreprise)/Egger_(entreprise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fritz Egger GmbH &amp; Co. OG est une entreprise autrichienne de l'industrie du bois fondée à St. Johann in Tirol en 1961.
-La société emploie environ 11 200 personnes sur 21 usines en Europe et en Amérique: 6 en Allemagne, 3 en Autriche, 2 en France, 2 en Grande-Bretagne, 2 en Russie, 1 en Turquie, 1 en Roumanie, 1 en Pologne, 1 en Amérique du Sud, 1 en Italie et 1 aux États-Unis[1].
+La société emploie environ 11 200 personnes sur 21 usines en Europe et en Amérique: 6 en Allemagne, 3 en Autriche, 2 en France, 2 en Grande-Bretagne, 2 en Russie, 1 en Turquie, 1 en Roumanie, 1 en Pologne, 1 en Amérique du Sud, 1 en Italie et 1 aux États-Unis.
 Elle transforme le bois pour l'industrie du meuble et de l'agencement.
 </t>
         </is>
